--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_549.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_549.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
   <si>
     <t>STR#</t>
   </si>
@@ -61,6 +61,15 @@
   </si>
   <si>
     <t>https://www.tripadvisor.com/Hotel_Review-g32987-d79610-Reviews-Motel_6_Los_Angeles_Rosemead-Rosemead_California.html</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>33</t>
   </si>
   <si>
     <t>https://www.orbitz.com/Los-Angeles-Hotels-Motel-6-Los-Angeles-Rosemead.h994153.Hotel-Information</t>
@@ -532,11 +541,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +573,79 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="J1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="K1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="L1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="M1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="N1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="O1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="P1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="Q1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="R1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="S1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="T1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="U1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="V1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="W1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="X1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="Y1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_549.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_549.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="152">
   <si>
     <t>STR#</t>
   </si>
@@ -148,6 +148,336 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>07/07/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32987-d79610-r472460396-Motel_6_Los_Angeles_Rosemead-Rosemead_California.html</t>
+  </si>
+  <si>
+    <t>32987</t>
+  </si>
+  <si>
+    <t>79610</t>
+  </si>
+  <si>
+    <t>472460396</t>
+  </si>
+  <si>
+    <t>04/03/2017</t>
+  </si>
+  <si>
+    <t>House flooded</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I have nothing but great things to say about the staff and comfort at this location  our house flooded and we are left with no where to go we stayed the 1st but here and I will never go to another motel 6 the staff is friendly and understanding if I'm not happy with something the manager Dennis is always available to see if there is something he can do thanks guys you have a really great team keep up the good work! </t>
+  </si>
+  <si>
+    <t>April 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32987-d79610-r453898044-Motel_6_Los_Angeles_Rosemead-Rosemead_California.html</t>
+  </si>
+  <si>
+    <t>453898044</t>
+  </si>
+  <si>
+    <t>01/21/2017</t>
+  </si>
+  <si>
+    <t>Meets Expectations of Clean Economy Motel</t>
+  </si>
+  <si>
+    <t>The rooms are clean with plain, uncluttered furnishings.  Worth the price. There were two dining chairs, a tab;e. one nightstand, a full size bed, open closet, and phone.  There were towels (on the small side) and soap.  The basics are all there, but no frills.Coffee in the lobby, but not in the rooms,  It shares a parking lot with a Carrow's.</t>
+  </si>
+  <si>
+    <t>January 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32987-d79610-r422826635-Motel_6_Los_Angeles_Rosemead-Rosemead_California.html</t>
+  </si>
+  <si>
+    <t>422826635</t>
+  </si>
+  <si>
+    <t>09/27/2016</t>
+  </si>
+  <si>
+    <t>Super Firm Bed</t>
+  </si>
+  <si>
+    <t>I wasn't expecting much from a motel but I had the worst time falling asleep. The bed was extremely firm, almost like sleeping on a platform. I know there are people who prefer that but I have back problems and it was awful! The room was clean and I only wish the room had a mini fridge to store food and drinks. Also it would be nice if they included shampoo and conditioner. Front desk rep did give me a very quiet room behind the freeway which I appreciated.</t>
+  </si>
+  <si>
+    <t>September 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32987-d79610-r387650942-Motel_6_Los_Angeles_Rosemead-Rosemead_California.html</t>
+  </si>
+  <si>
+    <t>387650942</t>
+  </si>
+  <si>
+    <t>06/29/2016</t>
+  </si>
+  <si>
+    <t>Average night stay for an average hotel</t>
+  </si>
+  <si>
+    <t>The outside area was loud and it seemed as though people were there on long term stays rather than just staying for the night. The room was clean and safe, but there were not towels in the room, and we the hotel did not provide shampoo we ended up going down the street to Walmart to grab some essentials, The shampoo scenario really was not that bad but the attitude that they didn't provide shampoo was a little disappointing, and for a company the "will leave the light on for you" they may want to reconsider their position on providing "the essential" on a timely basis.</t>
+  </si>
+  <si>
+    <t>June 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32987-d79610-r378699975-Motel_6_Los_Angeles_Rosemead-Rosemead_California.html</t>
+  </si>
+  <si>
+    <t>378699975</t>
+  </si>
+  <si>
+    <t>06/01/2016</t>
+  </si>
+  <si>
+    <t>It Was Ok</t>
+  </si>
+  <si>
+    <t>The Service Was Fine But We Didn't Have A Fridge to keep our food cool and The TV Channels Were Very Limited and the rooms are too small. But over all the people who work there are very nice and they make sure you feel welcomed</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32987-d79610-r362013776-Motel_6_Los_Angeles_Rosemead-Rosemead_California.html</t>
+  </si>
+  <si>
+    <t>362013776</t>
+  </si>
+  <si>
+    <t>04/06/2016</t>
+  </si>
+  <si>
+    <t>Everything was perfectly clean!</t>
+  </si>
+  <si>
+    <t>I had an excellent experience. Everything that I needed was there. I just needed a nice place to stay at a reasonable  price. This met all my needs perfectly. I've stayed at much more expensive places that were not as clean and neat. Others complain of old cars and noise.  Sure, there were some old cars. So what? Who cares? There was a little noise, but not much. Some folks will complain about the Ritz Carlton or the Waldorf Astoria (I've been to both). Actually the people at this Motel 6 were friendlier and down to earth. The folks at the Ritz and Waldorf all have their noses up in the air and think that they are too good to talk to you. I don't need that! Thank you Motel 6! I had a wonderful stay and I'm going to stay a few nights more!MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2016</t>
+  </si>
+  <si>
+    <t>I had an excellent experience. Everything that I needed was there. I just needed a nice place to stay at a reasonable  price. This met all my needs perfectly. I've stayed at much more expensive places that were not as clean and neat. Others complain of old cars and noise.  Sure, there were some old cars. So what? Who cares? There was a little noise, but not much. Some folks will complain about the Ritz Carlton or the Waldorf Astoria (I've been to both). Actually the people at this Motel 6 were friendlier and down to earth. The folks at the Ritz and Waldorf all have their noses up in the air and think that they are too good to talk to you. I don't need that! Thank you Motel 6! I had a wonderful stay and I'm going to stay a few nights more!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32987-d79610-r292068818-Motel_6_Los_Angeles_Rosemead-Rosemead_California.html</t>
+  </si>
+  <si>
+    <t>292068818</t>
+  </si>
+  <si>
+    <t>07/24/2015</t>
+  </si>
+  <si>
+    <t>If you're looking for a good night's sleep, don't choose this one</t>
+  </si>
+  <si>
+    <t>The room looked clean except for a long, black hair in the sink. The bed was comfortable enough - soft and springy mattress which some hate but was okay for me. The pillows were lumpy so I was glad I packed my own. But OMG - the noises surrounding the room... Something woke me at 2:30 a.m. and after that all I could do was doze because noise after noise kept breaking through the thin walls and window. I even turned on a "white noise" maker on my laptop and that still couldn't drown out exterior sounds. I heard someone's cellphone buzzing somewhere, someone knocking loudly on people's doors at 4:30 a.m. People talking, doors slamming, etc. all between 3 a.m. and 5:30 a.m. when I got up.
+My room was facing one of the parking areas, but the motel is laid out so that nearly every room faces a parking area, so the noise might be a problem everywhere. I think the real problem with this motel is cheap construction. It's too poorly made to block out even small noises. 
+I also had a tiny little baby roach visitor in the bathroom! Adorable, in a cockroachy kind of way, but I try to kill all roaches (it's them against us in the evolutionary spectrum of time). This one escaped so it's still at this Motel 6, going room to room, no doubt looking for your dinner scraps. 
+So it...The room looked clean except for a long, black hair in the sink. The bed was comfortable enough - soft and springy mattress which some hate but was okay for me. The pillows were lumpy so I was glad I packed my own. But OMG - the noises surrounding the room... Something woke me at 2:30 a.m. and after that all I could do was doze because noise after noise kept breaking through the thin walls and window. I even turned on a "white noise" maker on my laptop and that still couldn't drown out exterior sounds. I heard someone's cellphone buzzing somewhere, someone knocking loudly on people's doors at 4:30 a.m. People talking, doors slamming, etc. all between 3 a.m. and 5:30 a.m. when I got up.My room was facing one of the parking areas, but the motel is laid out so that nearly every room faces a parking area, so the noise might be a problem everywhere. I think the real problem with this motel is cheap construction. It's too poorly made to block out even small noises. I also had a tiny little baby roach visitor in the bathroom! Adorable, in a cockroachy kind of way, but I try to kill all roaches (it's them against us in the evolutionary spectrum of time). This one escaped so it's still at this Motel 6, going room to room, no doubt looking for your dinner scraps. So it was not a nice stay and that's why this one gets a one-star from me. On the plus side, staff at this motel were very nice and water pressure in shower was adequate. Price was lowest in the area. But figure out some sleep strategies if you want to stay here - maybe earplugs?MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>6Team, Brand Experience Team member at Motel 6 Los Angeles - Rosemead, responded to this reviewResponded July 27, 2015</t>
+  </si>
+  <si>
+    <t>Responded July 27, 2015</t>
+  </si>
+  <si>
+    <t>The room looked clean except for a long, black hair in the sink. The bed was comfortable enough - soft and springy mattress which some hate but was okay for me. The pillows were lumpy so I was glad I packed my own. But OMG - the noises surrounding the room... Something woke me at 2:30 a.m. and after that all I could do was doze because noise after noise kept breaking through the thin walls and window. I even turned on a "white noise" maker on my laptop and that still couldn't drown out exterior sounds. I heard someone's cellphone buzzing somewhere, someone knocking loudly on people's doors at 4:30 a.m. People talking, doors slamming, etc. all between 3 a.m. and 5:30 a.m. when I got up.
+My room was facing one of the parking areas, but the motel is laid out so that nearly every room faces a parking area, so the noise might be a problem everywhere. I think the real problem with this motel is cheap construction. It's too poorly made to block out even small noises. 
+I also had a tiny little baby roach visitor in the bathroom! Adorable, in a cockroachy kind of way, but I try to kill all roaches (it's them against us in the evolutionary spectrum of time). This one escaped so it's still at this Motel 6, going room to room, no doubt looking for your dinner scraps. 
+So it...The room looked clean except for a long, black hair in the sink. The bed was comfortable enough - soft and springy mattress which some hate but was okay for me. The pillows were lumpy so I was glad I packed my own. But OMG - the noises surrounding the room... Something woke me at 2:30 a.m. and after that all I could do was doze because noise after noise kept breaking through the thin walls and window. I even turned on a "white noise" maker on my laptop and that still couldn't drown out exterior sounds. I heard someone's cellphone buzzing somewhere, someone knocking loudly on people's doors at 4:30 a.m. People talking, doors slamming, etc. all between 3 a.m. and 5:30 a.m. when I got up.My room was facing one of the parking areas, but the motel is laid out so that nearly every room faces a parking area, so the noise might be a problem everywhere. I think the real problem with this motel is cheap construction. It's too poorly made to block out even small noises. I also had a tiny little baby roach visitor in the bathroom! Adorable, in a cockroachy kind of way, but I try to kill all roaches (it's them against us in the evolutionary spectrum of time). This one escaped so it's still at this Motel 6, going room to room, no doubt looking for your dinner scraps. So it was not a nice stay and that's why this one gets a one-star from me. On the plus side, staff at this motel were very nice and water pressure in shower was adequate. Price was lowest in the area. But figure out some sleep strategies if you want to stay here - maybe earplugs?More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32987-d79610-r286407525-Motel_6_Los_Angeles_Rosemead-Rosemead_California.html</t>
+  </si>
+  <si>
+    <t>286407525</t>
+  </si>
+  <si>
+    <t>07/07/2015</t>
+  </si>
+  <si>
+    <t>great for la visit, car is needed</t>
+  </si>
+  <si>
+    <t>We stayed here for 4 nights. Since we were 4 ppl in a double room the price was great, staff was very friendly and helpful, rooms were clean and towels/sheets got changed everyday.They even have a pool but we didnt get a chance to try it out, looked good though.Its only 20 minutes to downtown/hollywood, 40 to santa monica.theres a lot of restaurants/fastfood nearby, and a huge newish walmart as well. neighborhood looked safe and tidy.We def would stay here again.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32987-d79610-r243278006-Motel_6_Los_Angeles_Rosemead-Rosemead_California.html</t>
+  </si>
+  <si>
+    <t>243278006</t>
+  </si>
+  <si>
+    <t>12/06/2014</t>
+  </si>
+  <si>
+    <t>Bed Bugs during November 2014, Enough said</t>
+  </si>
+  <si>
+    <t>Booked 4 rooms during the middle of November. Found bed bugs in two. We checked in in the evening, dropped our stuff off and went out for dinner. When we came back and started to shower and wind down, we found adult bed bugs in the beds of 2 separate rooms. They were fed (large, plump, and dark red). Got a refund and left immediately.Here's the problem. It's not the first time. They know there are bed bugs. When I told the clerks, they didn't even question and just gave me a refund. They didn't even need to go look and confirm. When I asked, they said they had the problem in the past. Obviously not dealt with yet.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2014</t>
+  </si>
+  <si>
+    <t>Booked 4 rooms during the middle of November. Found bed bugs in two. We checked in in the evening, dropped our stuff off and went out for dinner. When we came back and started to shower and wind down, we found adult bed bugs in the beds of 2 separate rooms. They were fed (large, plump, and dark red). Got a refund and left immediately.Here's the problem. It's not the first time. They know there are bed bugs. When I told the clerks, they didn't even question and just gave me a refund. They didn't even need to go look and confirm. When I asked, they said they had the problem in the past. Obviously not dealt with yet.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32987-d79610-r171680147-Motel_6_Los_Angeles_Rosemead-Rosemead_California.html</t>
+  </si>
+  <si>
+    <t>171680147</t>
+  </si>
+  <si>
+    <t>08/10/2013</t>
+  </si>
+  <si>
+    <t>Okay at first - then found roach in room!</t>
+  </si>
+  <si>
+    <t>The area around the property is beautiful. My first impression was that it was fairly clean and I didn't have any issues up until the third night when my boyfriend had noticed a roach on the floor! Then shortly after we both noticed some spider webs on the ceiling. The staff was friendly, of course there were shady people around (but it's a motel). Not sure if the motel was dirtier than I thought, or if we were unlucky enough to get the one roach. Either way, I don't recommend it unless you're okay with creepy-crawlies. Not staying again.</t>
+  </si>
+  <si>
+    <t>August 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32987-d79610-r164810135-Motel_6_Los_Angeles_Rosemead-Rosemead_California.html</t>
+  </si>
+  <si>
+    <t>164810135</t>
+  </si>
+  <si>
+    <t>06/22/2013</t>
+  </si>
+  <si>
+    <t>Very Very Good</t>
+  </si>
+  <si>
+    <t>Clean, Quiet for sleeping, Staff all friendly and helpful. How big a room do you need? Stay here.I got the senior discount and I'm only 60. Has nice pool.The cleaning staff did an excellent job keeping my room fresh but then again I kept it nice for them to clean.</t>
+  </si>
+  <si>
+    <t>June 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32987-d79610-r152672592-Motel_6_Los_Angeles_Rosemead-Rosemead_California.html</t>
+  </si>
+  <si>
+    <t>152672592</t>
+  </si>
+  <si>
+    <t>02/20/2013</t>
+  </si>
+  <si>
+    <t>Run away!</t>
+  </si>
+  <si>
+    <t>Room was the size of a big closet. The bed was about two feet above the ground. Checked the corner of the bed under the sheets, found dark red stains. Checked out! Paid $15 more for a clean room further away. Wont stay at M6 again. Too bad, they were better a few years ago.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32987-d79610-r131786604-Motel_6_Los_Angeles_Rosemead-Rosemead_California.html</t>
+  </si>
+  <si>
+    <t>131786604</t>
+  </si>
+  <si>
+    <t>06/11/2012</t>
+  </si>
+  <si>
+    <t>Very confortable beds</t>
+  </si>
+  <si>
+    <t>We stayed here 1 night with 2 rooms and we all got a very good night sleep, we were well rested in the morning.  no noise to wake us up, this Motel 6 is very quiet, we were in the bottom room and we didn't hear any noise, the room was clean and basic not fancy but we got what we wanted a good night rest and was only $65 a night, the lady in the lobby even gave us extra towels and extra pillows, she was very nice.  The next night we stayed at Holiday Inn Express and didn't get enough sleep my back was in pain because their beds were very hard and there was so much stomping on the top floor that we didn't even rest.  I recommend this Motel if what you are looking for is a well rested night, you don't really need the fancy extras, not worth it.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2012</t>
+  </si>
+  <si>
+    <t>We stayed here 1 night with 2 rooms and we all got a very good night sleep, we were well rested in the morning.  no noise to wake us up, this Motel 6 is very quiet, we were in the bottom room and we didn't hear any noise, the room was clean and basic not fancy but we got what we wanted a good night rest and was only $65 a night, the lady in the lobby even gave us extra towels and extra pillows, she was very nice.  The next night we stayed at Holiday Inn Express and didn't get enough sleep my back was in pain because their beds were very hard and there was so much stomping on the top floor that we didn't even rest.  I recommend this Motel if what you are looking for is a well rested night, you don't really need the fancy extras, not worth it.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32987-d79610-r108231412-Motel_6_Los_Angeles_Rosemead-Rosemead_California.html</t>
+  </si>
+  <si>
+    <t>108231412</t>
+  </si>
+  <si>
+    <t>05/14/2011</t>
+  </si>
+  <si>
+    <t>Older Motel 6, convenient to downtown LA</t>
+  </si>
+  <si>
+    <t>This is an older Motel 6 property with smallish TV, small room, and few electrical outlets.  Internet $3/day, buy an access card from front desk only after checking for signal in room (per front desk clerk).  WARNING: AVOID USING GPS TO NAVIGATE TO THIS LOCATION.  There is more than one address "1001 South San Gabriel Blvd" and my GPS took me to the identical address in the next town 7 miles away! Property is adj to SR-60 freeway.  Carrows coffee shop, Charley Brown's steakhouse, gas adj.  Large Wal-Mart w/pharmacy 1 mi to N.  Only room available on 1st floor was a smoking room, and they have lots of chain smokers in area code 626, trust me on that one.  A good value if you need to be in downtown LA tomorrow morning and don't have time/ability to priceline a room downtown.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2011</t>
+  </si>
+  <si>
+    <t>This is an older Motel 6 property with smallish TV, small room, and few electrical outlets.  Internet $3/day, buy an access card from front desk only after checking for signal in room (per front desk clerk).  WARNING: AVOID USING GPS TO NAVIGATE TO THIS LOCATION.  There is more than one address "1001 South San Gabriel Blvd" and my GPS took me to the identical address in the next town 7 miles away! Property is adj to SR-60 freeway.  Carrows coffee shop, Charley Brown's steakhouse, gas adj.  Large Wal-Mart w/pharmacy 1 mi to N.  Only room available on 1st floor was a smoking room, and they have lots of chain smokers in area code 626, trust me on that one.  A good value if you need to be in downtown LA tomorrow morning and don't have time/ability to priceline a room downtown.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32987-d79610-r73667480-Motel_6_Los_Angeles_Rosemead-Rosemead_California.html</t>
+  </si>
+  <si>
+    <t>73667480</t>
+  </si>
+  <si>
+    <t>08/03/2010</t>
+  </si>
+  <si>
+    <t>what a wonderful experience</t>
+  </si>
+  <si>
+    <t>The first thing that impressed me was how friendly and helpful the young woman was when she took my phone call as I inquired about vacancy and the type of room I was looking for.When I checked in a different young lady was equally friendly and helpful. This was on the last Sunday in July. I stayed for 2 days because I was attending a conference at the convention center in LA. The employees were so happy and appeared to love their job. They made my stay very pleasant. They answered my questions and were helpful and professinal. The housekeeping staff was also wonderful. The handyman was polite.</t>
+  </si>
+  <si>
+    <t>July 2010</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32987-d79610-r30265900-Motel_6_Los_Angeles_Rosemead-Rosemead_California.html</t>
+  </si>
+  <si>
+    <t>30265900</t>
+  </si>
+  <si>
+    <t>05/18/2009</t>
+  </si>
+  <si>
+    <t>Typical Motel 6</t>
+  </si>
+  <si>
+    <t>Great value, clean, bad insonorisation (but not annoying as there are no specific noise appart from the constant highway noise).</t>
+  </si>
+  <si>
+    <t>May 2009</t>
   </si>
 </sst>
 </file>
@@ -648,6 +978,1014 @@
         <v>43</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>6324</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>5</v>
+      </c>
+      <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="s"/>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="s"/>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s"/>
+      <c r="X2" t="s"/>
+      <c r="Y2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>6324</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J3" t="s">
+        <v>56</v>
+      </c>
+      <c r="K3" t="s">
+        <v>57</v>
+      </c>
+      <c r="L3" t="s">
+        <v>58</v>
+      </c>
+      <c r="M3" t="n">
+        <v>3</v>
+      </c>
+      <c r="N3" t="s">
+        <v>59</v>
+      </c>
+      <c r="O3" t="s">
+        <v>53</v>
+      </c>
+      <c r="P3" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="s"/>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="n">
+        <v>3</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s"/>
+      <c r="X3" t="s"/>
+      <c r="Y3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>6324</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>60</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>61</v>
+      </c>
+      <c r="J4" t="s">
+        <v>62</v>
+      </c>
+      <c r="K4" t="s">
+        <v>63</v>
+      </c>
+      <c r="L4" t="s">
+        <v>64</v>
+      </c>
+      <c r="M4" t="n">
+        <v>3</v>
+      </c>
+      <c r="N4" t="s">
+        <v>65</v>
+      </c>
+      <c r="O4" t="s">
+        <v>53</v>
+      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="s"/>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="s"/>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s"/>
+      <c r="X4" t="s"/>
+      <c r="Y4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>6324</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>66</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>67</v>
+      </c>
+      <c r="J5" t="s">
+        <v>68</v>
+      </c>
+      <c r="K5" t="s">
+        <v>69</v>
+      </c>
+      <c r="L5" t="s">
+        <v>70</v>
+      </c>
+      <c r="M5" t="n">
+        <v>3</v>
+      </c>
+      <c r="N5" t="s">
+        <v>71</v>
+      </c>
+      <c r="O5" t="s">
+        <v>72</v>
+      </c>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="n">
+        <v>3</v>
+      </c>
+      <c r="S5" t="n">
+        <v>3</v>
+      </c>
+      <c r="T5" t="s"/>
+      <c r="U5" t="n">
+        <v>2</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s"/>
+      <c r="X5" t="s"/>
+      <c r="Y5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>6324</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>73</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>74</v>
+      </c>
+      <c r="J6" t="s">
+        <v>75</v>
+      </c>
+      <c r="K6" t="s">
+        <v>76</v>
+      </c>
+      <c r="L6" t="s">
+        <v>77</v>
+      </c>
+      <c r="M6" t="n">
+        <v>3</v>
+      </c>
+      <c r="N6" t="s">
+        <v>71</v>
+      </c>
+      <c r="O6" t="s">
+        <v>78</v>
+      </c>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="s"/>
+      <c r="S6" t="s"/>
+      <c r="T6" t="s"/>
+      <c r="U6" t="s"/>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s"/>
+      <c r="X6" t="s"/>
+      <c r="Y6" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6324</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>79</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>80</v>
+      </c>
+      <c r="J7" t="s">
+        <v>81</v>
+      </c>
+      <c r="K7" t="s">
+        <v>82</v>
+      </c>
+      <c r="L7" t="s">
+        <v>83</v>
+      </c>
+      <c r="M7" t="n">
+        <v>5</v>
+      </c>
+      <c r="N7" t="s">
+        <v>84</v>
+      </c>
+      <c r="O7" t="s">
+        <v>53</v>
+      </c>
+      <c r="P7" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="s"/>
+      <c r="S7" t="n">
+        <v>5</v>
+      </c>
+      <c r="T7" t="s"/>
+      <c r="U7" t="n">
+        <v>5</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s"/>
+      <c r="X7" t="s"/>
+      <c r="Y7" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>6324</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>86</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>87</v>
+      </c>
+      <c r="J8" t="s">
+        <v>88</v>
+      </c>
+      <c r="K8" t="s">
+        <v>89</v>
+      </c>
+      <c r="L8" t="s">
+        <v>90</v>
+      </c>
+      <c r="M8" t="n">
+        <v>1</v>
+      </c>
+      <c r="N8" t="s">
+        <v>91</v>
+      </c>
+      <c r="O8" t="s">
+        <v>92</v>
+      </c>
+      <c r="P8" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q8" t="s"/>
+      <c r="R8" t="s"/>
+      <c r="S8" t="s"/>
+      <c r="T8" t="s"/>
+      <c r="U8" t="n">
+        <v>5</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s">
+        <v>93</v>
+      </c>
+      <c r="X8" t="s">
+        <v>94</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>6324</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>96</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>97</v>
+      </c>
+      <c r="J9" t="s">
+        <v>98</v>
+      </c>
+      <c r="K9" t="s">
+        <v>99</v>
+      </c>
+      <c r="L9" t="s">
+        <v>100</v>
+      </c>
+      <c r="M9" t="n">
+        <v>4</v>
+      </c>
+      <c r="N9" t="s">
+        <v>91</v>
+      </c>
+      <c r="O9" t="s">
+        <v>101</v>
+      </c>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="s"/>
+      <c r="R9" t="s"/>
+      <c r="S9" t="s"/>
+      <c r="T9" t="s"/>
+      <c r="U9" t="s"/>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s"/>
+      <c r="X9" t="s"/>
+      <c r="Y9" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>6324</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>102</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>103</v>
+      </c>
+      <c r="J10" t="s">
+        <v>104</v>
+      </c>
+      <c r="K10" t="s">
+        <v>105</v>
+      </c>
+      <c r="L10" t="s">
+        <v>106</v>
+      </c>
+      <c r="M10" t="n">
+        <v>1</v>
+      </c>
+      <c r="N10" t="s">
+        <v>107</v>
+      </c>
+      <c r="O10" t="s">
+        <v>72</v>
+      </c>
+      <c r="P10" t="s"/>
+      <c r="Q10" t="n">
+        <v>1</v>
+      </c>
+      <c r="R10" t="n">
+        <v>2</v>
+      </c>
+      <c r="S10" t="s"/>
+      <c r="T10" t="s"/>
+      <c r="U10" t="n">
+        <v>1</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s"/>
+      <c r="X10" t="s"/>
+      <c r="Y10" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>6324</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>109</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>110</v>
+      </c>
+      <c r="J11" t="s">
+        <v>111</v>
+      </c>
+      <c r="K11" t="s">
+        <v>112</v>
+      </c>
+      <c r="L11" t="s">
+        <v>113</v>
+      </c>
+      <c r="M11" t="n">
+        <v>2</v>
+      </c>
+      <c r="N11" t="s">
+        <v>114</v>
+      </c>
+      <c r="O11" t="s">
+        <v>101</v>
+      </c>
+      <c r="P11" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>3</v>
+      </c>
+      <c r="R11" t="n">
+        <v>4</v>
+      </c>
+      <c r="S11" t="n">
+        <v>1</v>
+      </c>
+      <c r="T11" t="s"/>
+      <c r="U11" t="n">
+        <v>3</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s"/>
+      <c r="X11" t="s"/>
+      <c r="Y11" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>6324</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>115</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>116</v>
+      </c>
+      <c r="J12" t="s">
+        <v>117</v>
+      </c>
+      <c r="K12" t="s">
+        <v>118</v>
+      </c>
+      <c r="L12" t="s">
+        <v>119</v>
+      </c>
+      <c r="M12" t="n">
+        <v>5</v>
+      </c>
+      <c r="N12" t="s">
+        <v>120</v>
+      </c>
+      <c r="O12" t="s">
+        <v>72</v>
+      </c>
+      <c r="P12" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>4</v>
+      </c>
+      <c r="R12" t="n">
+        <v>4</v>
+      </c>
+      <c r="S12" t="n">
+        <v>5</v>
+      </c>
+      <c r="T12" t="s"/>
+      <c r="U12" t="n">
+        <v>5</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s"/>
+      <c r="X12" t="s"/>
+      <c r="Y12" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>6324</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>121</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>122</v>
+      </c>
+      <c r="J13" t="s">
+        <v>123</v>
+      </c>
+      <c r="K13" t="s">
+        <v>124</v>
+      </c>
+      <c r="L13" t="s">
+        <v>125</v>
+      </c>
+      <c r="M13" t="n">
+        <v>1</v>
+      </c>
+      <c r="N13" t="s"/>
+      <c r="O13" t="s"/>
+      <c r="P13" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>1</v>
+      </c>
+      <c r="R13" t="n">
+        <v>3</v>
+      </c>
+      <c r="S13" t="n">
+        <v>1</v>
+      </c>
+      <c r="T13" t="s"/>
+      <c r="U13" t="n">
+        <v>1</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s"/>
+      <c r="X13" t="s"/>
+      <c r="Y13" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>6324</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>126</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>127</v>
+      </c>
+      <c r="J14" t="s">
+        <v>128</v>
+      </c>
+      <c r="K14" t="s">
+        <v>129</v>
+      </c>
+      <c r="L14" t="s">
+        <v>130</v>
+      </c>
+      <c r="M14" t="n">
+        <v>5</v>
+      </c>
+      <c r="N14" t="s">
+        <v>131</v>
+      </c>
+      <c r="O14" t="s">
+        <v>72</v>
+      </c>
+      <c r="P14" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>4</v>
+      </c>
+      <c r="R14" t="n">
+        <v>3</v>
+      </c>
+      <c r="S14" t="n">
+        <v>4</v>
+      </c>
+      <c r="T14" t="s"/>
+      <c r="U14" t="n">
+        <v>5</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s"/>
+      <c r="X14" t="s"/>
+      <c r="Y14" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>6324</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>133</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>134</v>
+      </c>
+      <c r="J15" t="s">
+        <v>135</v>
+      </c>
+      <c r="K15" t="s">
+        <v>136</v>
+      </c>
+      <c r="L15" t="s">
+        <v>137</v>
+      </c>
+      <c r="M15" t="n">
+        <v>3</v>
+      </c>
+      <c r="N15" t="s">
+        <v>138</v>
+      </c>
+      <c r="O15" t="s">
+        <v>92</v>
+      </c>
+      <c r="P15" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>3</v>
+      </c>
+      <c r="R15" t="n">
+        <v>5</v>
+      </c>
+      <c r="S15" t="n">
+        <v>4</v>
+      </c>
+      <c r="T15" t="s"/>
+      <c r="U15" t="n">
+        <v>4</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s"/>
+      <c r="X15" t="s"/>
+      <c r="Y15" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>6324</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>140</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>141</v>
+      </c>
+      <c r="J16" t="s">
+        <v>142</v>
+      </c>
+      <c r="K16" t="s">
+        <v>143</v>
+      </c>
+      <c r="L16" t="s">
+        <v>144</v>
+      </c>
+      <c r="M16" t="n">
+        <v>4</v>
+      </c>
+      <c r="N16" t="s">
+        <v>145</v>
+      </c>
+      <c r="O16" t="s">
+        <v>92</v>
+      </c>
+      <c r="P16" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>3</v>
+      </c>
+      <c r="R16" t="n">
+        <v>3</v>
+      </c>
+      <c r="S16" t="n">
+        <v>5</v>
+      </c>
+      <c r="T16" t="s"/>
+      <c r="U16" t="n">
+        <v>5</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s"/>
+      <c r="X16" t="s"/>
+      <c r="Y16" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>6324</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
+        <v>16</v>
+      </c>
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>146</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>147</v>
+      </c>
+      <c r="J17" t="s">
+        <v>148</v>
+      </c>
+      <c r="K17" t="s">
+        <v>149</v>
+      </c>
+      <c r="L17" t="s">
+        <v>150</v>
+      </c>
+      <c r="M17" t="n">
+        <v>3</v>
+      </c>
+      <c r="N17" t="s">
+        <v>151</v>
+      </c>
+      <c r="O17" t="s">
+        <v>53</v>
+      </c>
+      <c r="P17" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>4</v>
+      </c>
+      <c r="R17" t="n">
+        <v>3</v>
+      </c>
+      <c r="S17" t="n">
+        <v>4</v>
+      </c>
+      <c r="T17" t="s"/>
+      <c r="U17" t="n">
+        <v>4</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s"/>
+      <c r="X17" t="s"/>
+      <c r="Y17" t="s">
+        <v>150</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_549.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_549.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="168">
   <si>
     <t>STR#</t>
   </si>
@@ -150,6 +150,9 @@
     <t>response_text</t>
   </si>
   <si>
+    <t>Desiree G</t>
+  </si>
+  <si>
     <t>07/07/2018</t>
   </si>
   <si>
@@ -180,6 +183,9 @@
     <t xml:space="preserve"> traveled solo</t>
   </si>
   <si>
+    <t>Brenda G</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32987-d79610-r453898044-Motel_6_Los_Angeles_Rosemead-Rosemead_California.html</t>
   </si>
   <si>
@@ -198,6 +204,9 @@
     <t>January 2017</t>
   </si>
   <si>
+    <t>Meli N</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32987-d79610-r422826635-Motel_6_Los_Angeles_Rosemead-Rosemead_California.html</t>
   </si>
   <si>
@@ -216,6 +225,9 @@
     <t>September 2016</t>
   </si>
   <si>
+    <t>t0ny2679</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32987-d79610-r387650942-Motel_6_Los_Angeles_Rosemead-Rosemead_California.html</t>
   </si>
   <si>
@@ -237,6 +249,9 @@
     <t xml:space="preserve"> traveled with family</t>
   </si>
   <si>
+    <t>Tiny F</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32987-d79610-r378699975-Motel_6_Los_Angeles_Rosemead-Rosemead_California.html</t>
   </si>
   <si>
@@ -255,6 +270,9 @@
     <t xml:space="preserve"> traveled as a couple</t>
   </si>
   <si>
+    <t>Ed B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32987-d79610-r362013776-Motel_6_Los_Angeles_Rosemead-Rosemead_California.html</t>
   </si>
   <si>
@@ -274,6 +292,9 @@
   </si>
   <si>
     <t>I had an excellent experience. Everything that I needed was there. I just needed a nice place to stay at a reasonable  price. This met all my needs perfectly. I've stayed at much more expensive places that were not as clean and neat. Others complain of old cars and noise.  Sure, there were some old cars. So what? Who cares? There was a little noise, but not much. Some folks will complain about the Ritz Carlton or the Waldorf Astoria (I've been to both). Actually the people at this Motel 6 were friendlier and down to earth. The folks at the Ritz and Waldorf all have their noses up in the air and think that they are too good to talk to you. I don't need that! Thank you Motel 6! I had a wonderful stay and I'm going to stay a few nights more!More</t>
+  </si>
+  <si>
+    <t>PersonintheVicinity</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32987-d79610-r292068818-Motel_6_Los_Angeles_Rosemead-Rosemead_California.html</t>
@@ -312,6 +333,9 @@
 So it...The room looked clean except for a long, black hair in the sink. The bed was comfortable enough - soft and springy mattress which some hate but was okay for me. The pillows were lumpy so I was glad I packed my own. But OMG - the noises surrounding the room... Something woke me at 2:30 a.m. and after that all I could do was doze because noise after noise kept breaking through the thin walls and window. I even turned on a "white noise" maker on my laptop and that still couldn't drown out exterior sounds. I heard someone's cellphone buzzing somewhere, someone knocking loudly on people's doors at 4:30 a.m. People talking, doors slamming, etc. all between 3 a.m. and 5:30 a.m. when I got up.My room was facing one of the parking areas, but the motel is laid out so that nearly every room faces a parking area, so the noise might be a problem everywhere. I think the real problem with this motel is cheap construction. It's too poorly made to block out even small noises. I also had a tiny little baby roach visitor in the bathroom! Adorable, in a cockroachy kind of way, but I try to kill all roaches (it's them against us in the evolutionary spectrum of time). This one escaped so it's still at this Motel 6, going room to room, no doubt looking for your dinner scraps. So it was not a nice stay and that's why this one gets a one-star from me. On the plus side, staff at this motel were very nice and water pressure in shower was adequate. Price was lowest in the area. But figure out some sleep strategies if you want to stay here - maybe earplugs?More</t>
   </si>
   <si>
+    <t>philipp2207</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32987-d79610-r286407525-Motel_6_Los_Angeles_Rosemead-Rosemead_California.html</t>
   </si>
   <si>
@@ -330,6 +354,9 @@
     <t xml:space="preserve"> traveled with friends</t>
   </si>
   <si>
+    <t>Danny C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32987-d79610-r243278006-Motel_6_Los_Angeles_Rosemead-Rosemead_California.html</t>
   </si>
   <si>
@@ -351,6 +378,9 @@
     <t>Booked 4 rooms during the middle of November. Found bed bugs in two. We checked in in the evening, dropped our stuff off and went out for dinner. When we came back and started to shower and wind down, we found adult bed bugs in the beds of 2 separate rooms. They were fed (large, plump, and dark red). Got a refund and left immediately.Here's the problem. It's not the first time. They know there are bed bugs. When I told the clerks, they didn't even question and just gave me a refund. They didn't even need to go look and confirm. When I asked, they said they had the problem in the past. Obviously not dealt with yet.More</t>
   </si>
   <si>
+    <t>ChessyLynn</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32987-d79610-r171680147-Motel_6_Los_Angeles_Rosemead-Rosemead_California.html</t>
   </si>
   <si>
@@ -369,6 +399,9 @@
     <t>August 2013</t>
   </si>
   <si>
+    <t>RudyBob B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32987-d79610-r164810135-Motel_6_Los_Angeles_Rosemead-Rosemead_California.html</t>
   </si>
   <si>
@@ -387,6 +420,9 @@
     <t>June 2013</t>
   </si>
   <si>
+    <t>bhweber</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32987-d79610-r152672592-Motel_6_Los_Angeles_Rosemead-Rosemead_California.html</t>
   </si>
   <si>
@@ -402,6 +438,9 @@
     <t>Room was the size of a big closet. The bed was about two feet above the ground. Checked the corner of the bed under the sheets, found dark red stains. Checked out! Paid $15 more for a clean room further away. Wont stay at M6 again. Too bad, they were better a few years ago.</t>
   </si>
   <si>
+    <t>yolanda h</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32987-d79610-r131786604-Motel_6_Los_Angeles_Rosemead-Rosemead_California.html</t>
   </si>
   <si>
@@ -423,6 +462,9 @@
     <t>We stayed here 1 night with 2 rooms and we all got a very good night sleep, we were well rested in the morning.  no noise to wake us up, this Motel 6 is very quiet, we were in the bottom room and we didn't hear any noise, the room was clean and basic not fancy but we got what we wanted a good night rest and was only $65 a night, the lady in the lobby even gave us extra towels and extra pillows, she was very nice.  The next night we stayed at Holiday Inn Express and didn't get enough sleep my back was in pain because their beds were very hard and there was so much stomping on the top floor that we didn't even rest.  I recommend this Motel if what you are looking for is a well rested night, you don't really need the fancy extras, not worth it.More</t>
   </si>
   <si>
+    <t>mbstone</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32987-d79610-r108231412-Motel_6_Los_Angeles_Rosemead-Rosemead_California.html</t>
   </si>
   <si>
@@ -444,6 +486,9 @@
     <t>This is an older Motel 6 property with smallish TV, small room, and few electrical outlets.  Internet $3/day, buy an access card from front desk only after checking for signal in room (per front desk clerk).  WARNING: AVOID USING GPS TO NAVIGATE TO THIS LOCATION.  There is more than one address "1001 South San Gabriel Blvd" and my GPS took me to the identical address in the next town 7 miles away! Property is adj to SR-60 freeway.  Carrows coffee shop, Charley Brown's steakhouse, gas adj.  Large Wal-Mart w/pharmacy 1 mi to N.  Only room available on 1st floor was a smoking room, and they have lots of chain smokers in area code 626, trust me on that one.  A good value if you need to be in downtown LA tomorrow morning and don't have time/ability to priceline a room downtown.More</t>
   </si>
   <si>
+    <t>biznezz_lady</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32987-d79610-r73667480-Motel_6_Los_Angeles_Rosemead-Rosemead_California.html</t>
   </si>
   <si>
@@ -460,6 +505,9 @@
   </si>
   <si>
     <t>July 2010</t>
+  </si>
+  <si>
+    <t>PhilippeP</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32987-d79610-r30265900-Motel_6_Los_Angeles_Rosemead-Rosemead_California.html</t>
@@ -982,43 +1030,47 @@
       <c r="A2" t="n">
         <v>6324</v>
       </c>
-      <c r="B2" t="s"/>
-      <c r="C2" t="s"/>
+      <c r="B2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>44</v>
+      </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M2" t="n">
         <v>5</v>
       </c>
       <c r="N2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
@@ -1032,50 +1084,54 @@
       <c r="W2" t="s"/>
       <c r="X2" t="s"/>
       <c r="Y2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>6324</v>
       </c>
-      <c r="B3" t="s"/>
-      <c r="C3" t="s"/>
+      <c r="B3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>55</v>
+      </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="G3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="J3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="K3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="L3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="M3" t="n">
         <v>3</v>
       </c>
       <c r="N3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="O3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P3" t="n">
         <v>4</v>
@@ -1093,50 +1149,54 @@
       <c r="W3" t="s"/>
       <c r="X3" t="s"/>
       <c r="Y3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>6324</v>
       </c>
-      <c r="B4" t="s"/>
-      <c r="C4" t="s"/>
+      <c r="B4" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>62</v>
+      </c>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F4" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="G4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I4" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="J4" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="K4" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="L4" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="M4" t="n">
         <v>3</v>
       </c>
       <c r="N4" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="O4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P4" t="s"/>
       <c r="Q4" t="s"/>
@@ -1150,50 +1210,54 @@
       <c r="W4" t="s"/>
       <c r="X4" t="s"/>
       <c r="Y4" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>6324</v>
       </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s"/>
+      <c r="B5" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>69</v>
+      </c>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F5" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="G5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I5" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="J5" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="K5" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="L5" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="M5" t="n">
         <v>3</v>
       </c>
       <c r="N5" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="O5" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="P5" t="s"/>
       <c r="Q5" t="s"/>
@@ -1213,50 +1277,54 @@
       <c r="W5" t="s"/>
       <c r="X5" t="s"/>
       <c r="Y5" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>6324</v>
       </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
+      <c r="B6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>77</v>
+      </c>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F6" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="G6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I6" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="J6" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="K6" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="L6" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="M6" t="n">
         <v>3</v>
       </c>
       <c r="N6" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="O6" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="P6" t="s"/>
       <c r="Q6" t="s"/>
@@ -1270,50 +1338,54 @@
       <c r="W6" t="s"/>
       <c r="X6" t="s"/>
       <c r="Y6" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>6324</v>
       </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
+      <c r="B7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>84</v>
+      </c>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F7" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="G7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I7" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="J7" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="K7" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="L7" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="M7" t="n">
         <v>5</v>
       </c>
       <c r="N7" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="O7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P7" t="n">
         <v>5</v>
@@ -1333,50 +1405,54 @@
       <c r="W7" t="s"/>
       <c r="X7" t="s"/>
       <c r="Y7" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>6324</v>
       </c>
-      <c r="B8" t="s"/>
-      <c r="C8" t="s"/>
+      <c r="B8" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C8" t="s">
+        <v>92</v>
+      </c>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F8" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="G8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I8" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="J8" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="K8" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="L8" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="M8" t="n">
         <v>1</v>
       </c>
       <c r="N8" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="O8" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="P8" t="n">
         <v>4</v>
@@ -1392,56 +1468,60 @@
         <v>0</v>
       </c>
       <c r="W8" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="X8" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="Y8" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>6324</v>
       </c>
-      <c r="B9" t="s"/>
-      <c r="C9" t="s"/>
+      <c r="B9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C9" t="s">
+        <v>103</v>
+      </c>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F9" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="G9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I9" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="J9" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="K9" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="L9" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="M9" t="n">
         <v>4</v>
       </c>
       <c r="N9" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="O9" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="P9" t="s"/>
       <c r="Q9" t="s"/>
@@ -1455,50 +1535,54 @@
       <c r="W9" t="s"/>
       <c r="X9" t="s"/>
       <c r="Y9" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>6324</v>
       </c>
-      <c r="B10" t="s"/>
-      <c r="C10" t="s"/>
+      <c r="B10" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C10" t="s">
+        <v>110</v>
+      </c>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F10" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="G10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I10" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="J10" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="K10" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="L10" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="M10" t="n">
         <v>1</v>
       </c>
       <c r="N10" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="O10" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="P10" t="s"/>
       <c r="Q10" t="n">
@@ -1518,50 +1602,54 @@
       <c r="W10" t="s"/>
       <c r="X10" t="s"/>
       <c r="Y10" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>6324</v>
       </c>
-      <c r="B11" t="s"/>
-      <c r="C11" t="s"/>
+      <c r="B11" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C11" t="s">
+        <v>118</v>
+      </c>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F11" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="G11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I11" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="J11" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="K11" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="L11" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="M11" t="n">
         <v>2</v>
       </c>
       <c r="N11" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="O11" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="P11" t="n">
         <v>3</v>
@@ -1585,50 +1673,54 @@
       <c r="W11" t="s"/>
       <c r="X11" t="s"/>
       <c r="Y11" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>6324</v>
       </c>
-      <c r="B12" t="s"/>
-      <c r="C12" t="s"/>
+      <c r="B12" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C12" t="s">
+        <v>125</v>
+      </c>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F12" t="s">
-        <v>115</v>
+        <v>126</v>
       </c>
       <c r="G12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I12" t="s">
-        <v>116</v>
+        <v>127</v>
       </c>
       <c r="J12" t="s">
-        <v>117</v>
+        <v>128</v>
       </c>
       <c r="K12" t="s">
-        <v>118</v>
+        <v>129</v>
       </c>
       <c r="L12" t="s">
-        <v>119</v>
+        <v>130</v>
       </c>
       <c r="M12" t="n">
         <v>5</v>
       </c>
       <c r="N12" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="O12" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="P12" t="n">
         <v>5</v>
@@ -1652,41 +1744,45 @@
       <c r="W12" t="s"/>
       <c r="X12" t="s"/>
       <c r="Y12" t="s">
-        <v>119</v>
+        <v>130</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>6324</v>
       </c>
-      <c r="B13" t="s"/>
-      <c r="C13" t="s"/>
+      <c r="B13" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C13" t="s">
+        <v>132</v>
+      </c>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F13" t="s">
-        <v>121</v>
+        <v>133</v>
       </c>
       <c r="G13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I13" t="s">
-        <v>122</v>
+        <v>134</v>
       </c>
       <c r="J13" t="s">
-        <v>123</v>
+        <v>135</v>
       </c>
       <c r="K13" t="s">
-        <v>124</v>
+        <v>136</v>
       </c>
       <c r="L13" t="s">
-        <v>125</v>
+        <v>137</v>
       </c>
       <c r="M13" t="n">
         <v>1</v>
@@ -1715,50 +1811,54 @@
       <c r="W13" t="s"/>
       <c r="X13" t="s"/>
       <c r="Y13" t="s">
-        <v>125</v>
+        <v>137</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>6324</v>
       </c>
-      <c r="B14" t="s"/>
-      <c r="C14" t="s"/>
+      <c r="B14" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C14" t="s">
+        <v>138</v>
+      </c>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F14" t="s">
-        <v>126</v>
+        <v>139</v>
       </c>
       <c r="G14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I14" t="s">
-        <v>127</v>
+        <v>140</v>
       </c>
       <c r="J14" t="s">
-        <v>128</v>
+        <v>141</v>
       </c>
       <c r="K14" t="s">
-        <v>129</v>
+        <v>142</v>
       </c>
       <c r="L14" t="s">
-        <v>130</v>
+        <v>143</v>
       </c>
       <c r="M14" t="n">
         <v>5</v>
       </c>
       <c r="N14" t="s">
-        <v>131</v>
+        <v>144</v>
       </c>
       <c r="O14" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="P14" t="n">
         <v>5</v>
@@ -1782,50 +1882,54 @@
       <c r="W14" t="s"/>
       <c r="X14" t="s"/>
       <c r="Y14" t="s">
-        <v>132</v>
+        <v>145</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>6324</v>
       </c>
-      <c r="B15" t="s"/>
-      <c r="C15" t="s"/>
+      <c r="B15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C15" t="s">
+        <v>146</v>
+      </c>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F15" t="s">
-        <v>133</v>
+        <v>147</v>
       </c>
       <c r="G15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I15" t="s">
-        <v>134</v>
+        <v>148</v>
       </c>
       <c r="J15" t="s">
-        <v>135</v>
+        <v>149</v>
       </c>
       <c r="K15" t="s">
-        <v>136</v>
+        <v>150</v>
       </c>
       <c r="L15" t="s">
-        <v>137</v>
+        <v>151</v>
       </c>
       <c r="M15" t="n">
         <v>3</v>
       </c>
       <c r="N15" t="s">
-        <v>138</v>
+        <v>152</v>
       </c>
       <c r="O15" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="P15" t="n">
         <v>4</v>
@@ -1849,50 +1953,54 @@
       <c r="W15" t="s"/>
       <c r="X15" t="s"/>
       <c r="Y15" t="s">
-        <v>139</v>
+        <v>153</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>6324</v>
       </c>
-      <c r="B16" t="s"/>
-      <c r="C16" t="s"/>
+      <c r="B16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C16" t="s">
+        <v>154</v>
+      </c>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F16" t="s">
-        <v>140</v>
+        <v>155</v>
       </c>
       <c r="G16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I16" t="s">
-        <v>141</v>
+        <v>156</v>
       </c>
       <c r="J16" t="s">
-        <v>142</v>
+        <v>157</v>
       </c>
       <c r="K16" t="s">
-        <v>143</v>
+        <v>158</v>
       </c>
       <c r="L16" t="s">
-        <v>144</v>
+        <v>159</v>
       </c>
       <c r="M16" t="n">
         <v>4</v>
       </c>
       <c r="N16" t="s">
-        <v>145</v>
+        <v>160</v>
       </c>
       <c r="O16" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="P16" t="n">
         <v>5</v>
@@ -1916,50 +2024,54 @@
       <c r="W16" t="s"/>
       <c r="X16" t="s"/>
       <c r="Y16" t="s">
-        <v>144</v>
+        <v>159</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>6324</v>
       </c>
-      <c r="B17" t="s"/>
-      <c r="C17" t="s"/>
+      <c r="B17" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C17" t="s">
+        <v>161</v>
+      </c>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F17" t="s">
-        <v>146</v>
+        <v>162</v>
       </c>
       <c r="G17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H17" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I17" t="s">
-        <v>147</v>
+        <v>163</v>
       </c>
       <c r="J17" t="s">
-        <v>148</v>
+        <v>164</v>
       </c>
       <c r="K17" t="s">
-        <v>149</v>
+        <v>165</v>
       </c>
       <c r="L17" t="s">
-        <v>150</v>
+        <v>166</v>
       </c>
       <c r="M17" t="n">
         <v>3</v>
       </c>
       <c r="N17" t="s">
-        <v>151</v>
+        <v>167</v>
       </c>
       <c r="O17" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P17" t="n">
         <v>4</v>
@@ -1983,7 +2095,7 @@
       <c r="W17" t="s"/>
       <c r="X17" t="s"/>
       <c r="Y17" t="s">
-        <v>150</v>
+        <v>166</v>
       </c>
     </row>
   </sheetData>
